--- a/Vantage March Feedback - Rows1-300 .xlsx
+++ b/Vantage March Feedback - Rows1-300 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaeshev_Alapati\PycharmProjects\Lenovo 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10270116-8116-4F62-B8DA-1DE43E5989F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF46C6-7BB5-4B18-98F5-0EFB2266FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="144" xr2:uid="{10593855-06D5-42A9-A36F-35F1076E3DDF}"/>
   </bookViews>
@@ -2952,7 +2952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2962,6 +2962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,7 +2984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2993,6 +2999,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5417,8 +5426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF04834-6685-4B83-8AED-B6AA587BE8B0}">
   <dimension ref="A1:AJ300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5427,10 +5436,10 @@
     <col min="2" max="2" width="25.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="129.36328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="131.90625" style="7" customWidth="1"/>
     <col min="7" max="33" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="2.81640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="255.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.1796875" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -5545,7 +5554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>347983</v>
       </c>
@@ -5561,7 +5570,7 @@
       <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5623,7 +5632,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>353054</v>
       </c>
@@ -5753,7 +5762,7 @@
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -5813,7 +5822,7 @@
       <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -5854,7 +5863,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>393358</v>
       </c>
@@ -5935,7 +5944,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>412084</v>
       </c>
@@ -6004,7 +6013,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>413918</v>
       </c>
@@ -6089,7 +6098,7 @@
       <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -6205,7 +6214,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>453018</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>460343</v>
       </c>
@@ -6362,7 +6371,7 @@
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -6406,7 +6415,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>462541</v>
       </c>
@@ -6469,7 +6478,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>469917</v>
       </c>
@@ -6563,7 +6572,7 @@
       <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -6649,7 +6658,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>481407</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>485151</v>
       </c>
@@ -6794,7 +6803,7 @@
       <c r="E20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -6838,7 +6847,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>485505</v>
       </c>
@@ -6854,7 +6863,7 @@
       <c r="E21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -6898,7 +6907,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>485648</v>
       </c>
@@ -7045,7 +7054,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>491331</v>
       </c>
@@ -7111,7 +7120,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>504579</v>
       </c>
@@ -7573,7 +7582,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>523872</v>
       </c>
@@ -7693,7 +7702,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>547502</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>547849</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>552035</v>
       </c>
@@ -8230,7 +8239,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>575135</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>590031</v>
       </c>
@@ -8428,7 +8437,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>592398</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>598069</v>
       </c>
@@ -8626,7 +8635,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>609150</v>
       </c>
@@ -8695,7 +8704,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>611083</v>
       </c>
@@ -8890,7 +8899,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>631256</v>
       </c>
@@ -9079,7 +9088,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>347032</v>
       </c>
@@ -9718,7 +9727,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>348774</v>
       </c>
@@ -9778,7 +9787,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>349027</v>
       </c>
@@ -9847,7 +9856,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>349106</v>
       </c>
@@ -10276,7 +10285,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>350538</v>
       </c>
@@ -10717,7 +10726,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>352864</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>352873</v>
       </c>
@@ -11515,7 +11524,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>355912</v>
       </c>
@@ -11575,7 +11584,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>356136</v>
       </c>
@@ -12058,7 +12067,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>356689</v>
       </c>
@@ -12238,7 +12247,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>357245</v>
       </c>
@@ -12451,7 +12460,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>357840</v>
       </c>
@@ -12676,7 +12685,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>358402</v>
       </c>
@@ -13477,7 +13486,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>360623</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>360645</v>
       </c>
@@ -13753,7 +13762,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>361014</v>
       </c>
@@ -13810,7 +13819,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>361194</v>
       </c>
@@ -14128,7 +14137,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>362310</v>
       </c>
@@ -14869,7 +14878,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>363736</v>
       </c>
@@ -15106,7 +15115,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>364545</v>
       </c>
@@ -15166,7 +15175,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>364803</v>
       </c>
@@ -15316,7 +15325,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>365258</v>
       </c>
@@ -15499,7 +15508,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>365685</v>
       </c>
@@ -15766,7 +15775,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>366546</v>
       </c>
@@ -15862,7 +15871,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" ht="87" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>366744</v>
       </c>
@@ -16459,7 +16468,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>367560</v>
       </c>
@@ -16912,7 +16921,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>368250</v>
       </c>
@@ -16985,7 +16994,7 @@
       <c r="E161" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="8" t="s">
         <v>591</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -17083,7 +17092,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>369443</v>
       </c>
@@ -17143,7 +17152,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>369660</v>
       </c>
@@ -17260,7 +17269,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>370049</v>
       </c>
@@ -17395,7 +17404,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>370322</v>
       </c>
@@ -17411,7 +17420,7 @@
       <c r="E168" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="8" t="s">
         <v>603</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -17455,7 +17464,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>371363</v>
       </c>
@@ -17515,7 +17524,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>371515</v>
       </c>
@@ -17659,7 +17668,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>371733</v>
       </c>
@@ -17675,7 +17684,7 @@
       <c r="E172" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="8" t="s">
         <v>616</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -17917,7 +17926,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>372396</v>
       </c>
@@ -18037,7 +18046,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>373025</v>
       </c>
@@ -18676,7 +18685,7 @@
         <v>AMER</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>374531</v>
       </c>
@@ -18745,7 +18754,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>374626</v>
       </c>
@@ -18818,7 +18827,7 @@
       <c r="E190" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" s="8" t="s">
         <v>655</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -18946,7 +18955,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>374795</v>
       </c>
@@ -19198,7 +19207,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>375314</v>
       </c>
@@ -19315,7 +19324,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>375784</v>
       </c>
@@ -19561,7 +19570,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>376039</v>
       </c>
@@ -19676,7 +19685,7 @@
       <c r="E203" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="8" t="s">
         <v>691</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -19786,7 +19795,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>376313</v>
       </c>
@@ -19849,7 +19858,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>376506</v>
       </c>
@@ -19865,7 +19874,7 @@
       <c r="E206" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="8" t="s">
         <v>696</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -19915,7 +19924,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>376631</v>
       </c>
@@ -19931,7 +19940,7 @@
       <c r="E207" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="8" t="s">
         <v>700</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -19972,7 +19981,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>376796</v>
       </c>
@@ -19988,7 +19997,7 @@
       <c r="E208" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="8" t="s">
         <v>701</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -20105,7 +20114,7 @@
       <c r="E210" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" s="8" t="s">
         <v>705</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -20278,7 +20287,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>377396</v>
       </c>
@@ -20422,7 +20431,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>377563</v>
       </c>
@@ -20626,7 +20635,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>377764</v>
       </c>
@@ -20686,7 +20695,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>377848</v>
       </c>
@@ -20932,7 +20941,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>379123</v>
       </c>
@@ -20948,7 +20957,7 @@
       <c r="E223" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="8" t="s">
         <v>739</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -20995,7 +21004,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>379285</v>
       </c>
@@ -21058,7 +21067,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>379307</v>
       </c>
@@ -21208,7 +21217,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>379430</v>
       </c>
@@ -21277,7 +21286,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>379467</v>
       </c>
@@ -21422,7 +21431,7 @@
       <c r="E230" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F230" s="8" t="s">
         <v>753</v>
       </c>
       <c r="G230" s="1" t="s">
@@ -21700,7 +21709,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>380114</v>
       </c>
@@ -21757,7 +21766,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>380200</v>
       </c>
@@ -21773,7 +21782,7 @@
       <c r="E235" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F235" s="7" t="s">
+      <c r="F235" s="8" t="s">
         <v>771</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -21836,7 +21845,7 @@
       <c r="E236" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="F236" s="8" t="s">
         <v>772</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -21877,7 +21886,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>380776</v>
       </c>
@@ -22268,7 +22277,7 @@
       <c r="E243" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="F243" s="8" t="s">
         <v>787</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -22321,7 +22330,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>381898</v>
       </c>
@@ -22337,7 +22346,7 @@
       <c r="E244" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="F244" s="8" t="s">
         <v>789</v>
       </c>
       <c r="G244" s="1" t="s">
@@ -22427,7 +22436,7 @@
       <c r="E245" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="F245" s="7" t="s">
+      <c r="F245" s="8" t="s">
         <v>794</v>
       </c>
       <c r="G245" s="1" t="s">
@@ -22687,7 +22696,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>382394</v>
       </c>
@@ -22703,7 +22712,7 @@
       <c r="E249" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="8" t="s">
         <v>806</v>
       </c>
       <c r="G249" s="1" t="s">
@@ -22864,7 +22873,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>382653</v>
       </c>
@@ -22951,7 +22960,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>382807</v>
       </c>
@@ -22967,7 +22976,7 @@
       <c r="E253" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="F253" s="8" t="s">
         <v>819</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -23105,7 +23114,7 @@
       <c r="E255" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="F255" s="8" t="s">
         <v>825</v>
       </c>
       <c r="G255" s="1" t="s">
@@ -23146,7 +23155,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>383039</v>
       </c>
@@ -23219,7 +23228,7 @@
       <c r="E257" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="F257" s="7" t="s">
+      <c r="F257" s="8" t="s">
         <v>828</v>
       </c>
       <c r="G257" s="1" t="s">
@@ -23305,7 +23314,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>383140</v>
       </c>
@@ -23321,7 +23330,7 @@
       <c r="E258" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="F258" s="8" t="s">
         <v>835</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -23581,7 +23590,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>383376</v>
       </c>
@@ -23641,7 +23650,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="263" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>383436</v>
       </c>
@@ -23863,7 +23872,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="266" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>383668</v>
       </c>
@@ -24064,7 +24073,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>384550</v>
       </c>
@@ -24148,7 +24157,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>384611</v>
       </c>
@@ -24224,7 +24233,7 @@
       <c r="E271" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="F271" s="8" t="s">
         <v>876</v>
       </c>
       <c r="G271" s="1" t="s">
@@ -24331,7 +24340,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>384810</v>
       </c>
@@ -24526,7 +24535,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>385163</v>
       </c>
@@ -24542,7 +24551,7 @@
       <c r="E276" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F276" s="7" t="s">
+      <c r="F276" s="8" t="s">
         <v>887</v>
       </c>
       <c r="G276" s="1" t="s">
@@ -24583,7 +24592,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="277" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>385190</v>
       </c>
@@ -24715,7 +24724,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>385712</v>
       </c>
@@ -24794,7 +24803,7 @@
       <c r="E280" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="F280" s="7" t="s">
+      <c r="F280" s="8" t="s">
         <v>894</v>
       </c>
       <c r="G280" s="1" t="s">
@@ -25006,7 +25015,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>385904</v>
       </c>
@@ -25022,7 +25031,7 @@
       <c r="E283" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="F283" s="8" t="s">
         <v>908</v>
       </c>
       <c r="G283" s="1" t="s">
@@ -25171,7 +25180,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>386183</v>
       </c>
@@ -25187,7 +25196,7 @@
       <c r="E285" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="F285" s="7" t="s">
+      <c r="F285" s="8" t="s">
         <v>921</v>
       </c>
       <c r="G285" s="1" t="s">
@@ -25417,7 +25426,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>386836</v>
       </c>
@@ -25486,7 +25495,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>386857</v>
       </c>
@@ -25571,7 +25580,7 @@
       <c r="E291" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" s="8" t="s">
         <v>939</v>
       </c>
       <c r="G291" s="1" t="s">
@@ -25612,7 +25621,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>386996</v>
       </c>
@@ -25715,7 +25724,7 @@
       <c r="E293" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="F293" s="7" t="s">
+      <c r="F293" s="8" t="s">
         <v>949</v>
       </c>
       <c r="G293" s="1" t="s">
@@ -25756,7 +25765,7 @@
         <v>EMEA</v>
       </c>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>387156</v>
       </c>
@@ -25772,7 +25781,7 @@
       <c r="E294" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="F294" s="8" t="s">
         <v>951</v>
       </c>
       <c r="G294" s="1" t="s">
@@ -25960,7 +25969,7 @@
         <v>APAC</v>
       </c>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>387997</v>
       </c>
@@ -25976,7 +25985,7 @@
       <c r="E297" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="F297" s="7" t="s">
+      <c r="F297" s="8" t="s">
         <v>958</v>
       </c>
       <c r="G297" s="1" t="s">
@@ -26033,7 +26042,7 @@
       <c r="E298" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="F298" s="7" t="s">
+      <c r="F298" s="8" t="s">
         <v>960</v>
       </c>
       <c r="G298" s="1" t="s">
@@ -26168,7 +26177,7 @@
       <c r="E300" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="F300" s="7" t="s">
+      <c r="F300" s="8" t="s">
         <v>963</v>
       </c>
       <c r="G300" s="1" t="s">
